--- a/Tesis MIB/TESIS - Desarrollo/Pruebas/Sensor de fuerza/Relevamiento para linealización.xlsx
+++ b/Tesis MIB/TESIS - Desarrollo/Pruebas/Sensor de fuerza/Relevamiento para linealización.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis MIB\Proyecto de Tesis\TESIS - Desarrollo\Sensor de fuerza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremias\Documents\GitHub\jeremiasadrian\Tesis MIB\TESIS - Desarrollo\Pruebas\Sensor de fuerza\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>n</t>
   </si>
@@ -85,15 +86,75 @@
   <si>
     <t>V3n (99,3k pull-d)</t>
   </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Vo(10k)</t>
+  </si>
+  <si>
+    <t>Vo(20k)</t>
+  </si>
+  <si>
+    <t>Vo(33k)</t>
+  </si>
+  <si>
+    <t>Peso (gr)</t>
+  </si>
+  <si>
+    <t>Vo (100k)</t>
+  </si>
+  <si>
+    <t>Vo (476k)</t>
+  </si>
+  <si>
+    <t>Vo (1M)</t>
+  </si>
+  <si>
+    <t>Rn (kΩ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peso </t>
+  </si>
+  <si>
+    <t>Vo 
+(p/ RM=1M)</t>
+  </si>
+  <si>
+    <t>Vo 
+(p/ RM=476k)</t>
+  </si>
+  <si>
+    <t>Vo 
+(p/ RM=100k)</t>
+  </si>
+  <si>
+    <t>Vo
+(p/ RM=33k)</t>
+  </si>
+  <si>
+    <t>Vo
+(p/ RM=20k)</t>
+  </si>
+  <si>
+    <t>Vo 
+(p/RM=10k)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.00\ &quot;V&quot;"/>
+    <numFmt numFmtId="172" formatCode="0\ &quot;kΩ&quot;"/>
+    <numFmt numFmtId="173" formatCode="0\ &quot;gr&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +187,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -312,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +453,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,11 +654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309957448"/>
-        <c:axId val="309957840"/>
+        <c:axId val="35659880"/>
+        <c:axId val="35655960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309957448"/>
+        <c:axId val="35659880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,12 +715,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309957840"/>
+        <c:crossAx val="35655960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309957840"/>
+        <c:axId val="35655960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +777,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309957448"/>
+        <c:crossAx val="35659880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -901,11 +993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381997336"/>
-        <c:axId val="382000864"/>
+        <c:axId val="35662232"/>
+        <c:axId val="35662624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381997336"/>
+        <c:axId val="35662232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,12 +1054,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382000864"/>
+        <c:crossAx val="35662624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382000864"/>
+        <c:axId val="35662624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1116,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381997336"/>
+        <c:crossAx val="35662232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1047,6 +1139,3965 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V3n (99,3k pull-d)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$25:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="118436112"/>
+        <c:axId val="118438464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="118436112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118438464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="118438464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118436112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo(10k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$37:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$37:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.0168471720818293E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5045045045045043E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51020408163265307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70921985815602839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5974440894568691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9305019305019304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1276595744680851</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8901734104046244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo(20k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$37:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$37:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.201923076923077E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9285714285714288E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2422360248447204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4213075060532687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.785515320334262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9850746268656718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6630036630036629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo(33k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$37:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$37:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9800792031681266E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14563106796116504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85492227979274615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0386740331491713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3742331288343559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5483870967741935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8372093023255816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0942928039702231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo (100k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$37:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$37:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo (476k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$37:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$37:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo (1M)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$37:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$37:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446477256"/>
+        <c:axId val="446476080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446477256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446476080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446476080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446477256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Respuesta (en escala logarítmica) del valor de resistencia del FSR 400 (Rn), expresado en k</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>Ω</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>, entre 7,54 gr y 607,54 gr</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rn (kΩ)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="77000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>307.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>407.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>607.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$3:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rn (kΩ)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="76000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>307.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>407.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>607.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$3:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="437128752"/>
+        <c:axId val="437129144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="437128752"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Peso total sobre el sensor (pesa+plataforma) en gramos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437129144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="437129144"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Rn (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437128752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Respuesta (en escala lineal) del valor de resistencia del FSR 400 (Rn), expresado en k</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>Ω</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>, entre 7,54 gr y 607,54 gr</a:t>
+            </a:r>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rn (kΩ)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:tint val="77000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>307.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>407.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>607.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$3:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rn (kΩ)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="76000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>307.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>407.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>507.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>607.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$E$3:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="169313896"/>
+        <c:axId val="169314288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="169313896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Peso total sobre el sensor (pesa+plataforma) en gramos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169314288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="169314288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Rn (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169313896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Respuesta del Divisor Resistivo para distintos valores de RM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo 
+(p/RM=10k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "gr"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$P$3:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "V"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.0168471720818293E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5045045045045043E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51020408163265307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70921985815602839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5974440894568691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9305019305019304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1276595744680851</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8901734104046244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo
+(p/ RM=20k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "gr"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$Q$3:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "V"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.201923076923077E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9285714285714288E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2422360248447204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4213075060532687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.785515320334262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9850746268656718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6630036630036629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo
+(p/ RM=33k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "gr"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$R$3:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "V"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9800792031681266E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14563106796116504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85492227979274615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0386740331491713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3742331288343559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5483870967741935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8372093023255816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0942928039702231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo 
+(p/ RM=100k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "gr"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$S$3:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "V"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo 
+(p/ RM=476k)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "gr"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$T$3:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "V"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vo 
+(p/ RM=1M)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "gr"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>157.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$U$3:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "V"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446471376"/>
+        <c:axId val="446470592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446471376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="210"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Pesos aplicados sobre el sensor (incluída la plataforma)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0\ &quot;gr&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446470592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446470592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Vout</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (Tensión de salida del divisor)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.24418963254593176"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00\ &quot;V&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446471376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1153,6 +5204,138 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2181,6 +6364,2652 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2242,6 +9071,163 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>218514</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>218514</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2513,10 +9499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,6 +10193,366 @@
         <v>4.57</v>
       </c>
     </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7.54</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8300000</v>
+      </c>
+      <c r="D37" s="33">
+        <f>(5*$D$48)/(C37+$D$48)</f>
+        <v>6.0168471720818293E-3</v>
+      </c>
+      <c r="E37" s="33">
+        <f>(5*$E$48)/(C37+$E$48)</f>
+        <v>1.201923076923077E-2</v>
+      </c>
+      <c r="F37" s="33">
+        <f>(5*$F$48)/(C37+$F$48)</f>
+        <v>1.9800792031681266E-2</v>
+      </c>
+      <c r="G37" s="33">
+        <v>0</v>
+      </c>
+      <c r="H37" s="33">
+        <v>0</v>
+      </c>
+      <c r="I37" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="D38" s="33">
+        <f>(5*$D$48)/(C38+$D$48)</f>
+        <v>4.5045045045045043E-2</v>
+      </c>
+      <c r="E38" s="33">
+        <f t="shared" ref="E38:E46" si="2">(5*$E$48)/(C38+$E$48)</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="F38" s="33">
+        <f t="shared" ref="F38:F46" si="3">(5*$F$48)/(C38+$F$48)</f>
+        <v>0.14563106796116504</v>
+      </c>
+      <c r="G38" s="33">
+        <v>2</v>
+      </c>
+      <c r="H38" s="33">
+        <v>2.7</v>
+      </c>
+      <c r="I38" s="33">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>3</v>
+      </c>
+      <c r="B39" s="16">
+        <v>12.54</v>
+      </c>
+      <c r="C39" s="3">
+        <v>160000</v>
+      </c>
+      <c r="D39" s="33">
+        <f>(5*$D$48)/(C39+$D$48)</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="E39" s="33">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F39" s="33">
+        <f t="shared" si="3"/>
+        <v>0.85492227979274615</v>
+      </c>
+      <c r="G39" s="33">
+        <v>2.6</v>
+      </c>
+      <c r="H39" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="I39" s="33">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>4</v>
+      </c>
+      <c r="B40" s="16">
+        <v>17.54</v>
+      </c>
+      <c r="C40" s="3">
+        <v>88000</v>
+      </c>
+      <c r="D40" s="33">
+        <f>(5*$D$48)/(C40+$D$48)</f>
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="E40" s="33">
+        <f t="shared" si="2"/>
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="F40" s="33">
+        <f t="shared" si="3"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="G40" s="33">
+        <v>3</v>
+      </c>
+      <c r="H40" s="33">
+        <v>3.95</v>
+      </c>
+      <c r="I40" s="33">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>5</v>
+      </c>
+      <c r="B41" s="16">
+        <v>27.54</v>
+      </c>
+      <c r="C41" s="3">
+        <v>60500</v>
+      </c>
+      <c r="D41" s="33">
+        <f>(5*$D$48)/(C41+$D$48)</f>
+        <v>0.70921985815602839</v>
+      </c>
+      <c r="E41" s="33">
+        <f t="shared" si="2"/>
+        <v>1.2422360248447204</v>
+      </c>
+      <c r="F41" s="33">
+        <f t="shared" si="3"/>
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="G41" s="33">
+        <v>3.29</v>
+      </c>
+      <c r="H41" s="33">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I41" s="33">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>6</v>
+      </c>
+      <c r="B42" s="16">
+        <v>57.54</v>
+      </c>
+      <c r="C42" s="3">
+        <v>21300</v>
+      </c>
+      <c r="D42" s="33">
+        <f>(5*$D$48)/(C42+$D$48)</f>
+        <v>1.5974440894568691</v>
+      </c>
+      <c r="E42" s="33">
+        <f t="shared" si="2"/>
+        <v>2.4213075060532687</v>
+      </c>
+      <c r="F42" s="33">
+        <f t="shared" si="3"/>
+        <v>3.0386740331491713</v>
+      </c>
+      <c r="G42" s="33">
+        <v>3.68</v>
+      </c>
+      <c r="H42" s="33">
+        <v>4.59</v>
+      </c>
+      <c r="I42" s="33">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>7</v>
+      </c>
+      <c r="B43" s="16">
+        <v>77.540000000000006</v>
+      </c>
+      <c r="C43" s="3">
+        <v>15900</v>
+      </c>
+      <c r="D43" s="33">
+        <f>(5*$D$48)/(C43+$D$48)</f>
+        <v>1.9305019305019304</v>
+      </c>
+      <c r="E43" s="33">
+        <f t="shared" si="2"/>
+        <v>2.785515320334262</v>
+      </c>
+      <c r="F43" s="33">
+        <f t="shared" si="3"/>
+        <v>3.3742331288343559</v>
+      </c>
+      <c r="G43" s="33">
+        <v>4</v>
+      </c>
+      <c r="H43" s="33">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I43" s="33">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>8</v>
+      </c>
+      <c r="B44" s="16">
+        <v>107.54</v>
+      </c>
+      <c r="C44" s="3">
+        <v>13500</v>
+      </c>
+      <c r="D44" s="33">
+        <f>(5*$D$48)/(C44+$D$48)</f>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="E44" s="33">
+        <f t="shared" si="2"/>
+        <v>2.9850746268656718</v>
+      </c>
+      <c r="F44" s="33">
+        <f t="shared" si="3"/>
+        <v>3.5483870967741935</v>
+      </c>
+      <c r="G44" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="H44" s="33">
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="I44" s="33">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>9</v>
+      </c>
+      <c r="B45" s="16">
+        <v>157.54</v>
+      </c>
+      <c r="C45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="33">
+        <f>(5*$D$48)/(C45+$D$48)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E45" s="33">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F45" s="33">
+        <f t="shared" si="3"/>
+        <v>3.8372093023255816</v>
+      </c>
+      <c r="G45" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="H45" s="33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I45" s="33">
+        <v>4.9470000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>10</v>
+      </c>
+      <c r="B46" s="16">
+        <v>207.54</v>
+      </c>
+      <c r="C46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="D46" s="33">
+        <f>(5*$D$48)/(C46+$D$48)</f>
+        <v>2.8901734104046244</v>
+      </c>
+      <c r="E46" s="33">
+        <f t="shared" si="2"/>
+        <v>3.6630036630036629</v>
+      </c>
+      <c r="F46" s="33">
+        <f t="shared" si="3"/>
+        <v>4.0942928039702231</v>
+      </c>
+      <c r="G46" s="33">
+        <v>4.57</v>
+      </c>
+      <c r="H46" s="33">
+        <v>4.92</v>
+      </c>
+      <c r="I46" s="33">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>10000</v>
+      </c>
+      <c r="E48">
+        <v>20000</v>
+      </c>
+      <c r="F48">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:G2"/>
@@ -3218,4 +10564,553 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0</v>
+      </c>
+      <c r="D3" s="35">
+        <f>C3+7.54</f>
+        <v>7.54</v>
+      </c>
+      <c r="E3" s="35">
+        <v>8300</v>
+      </c>
+      <c r="M3" s="34">
+        <v>1</v>
+      </c>
+      <c r="N3" s="38">
+        <v>7.54</v>
+      </c>
+      <c r="O3" s="37">
+        <v>8300</v>
+      </c>
+      <c r="P3" s="40">
+        <v>6.0168471720818293E-3</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>1.201923076923077E-2</v>
+      </c>
+      <c r="R3" s="40">
+        <v>1.9800792031681266E-2</v>
+      </c>
+      <c r="S3" s="40">
+        <v>0</v>
+      </c>
+      <c r="T3" s="40">
+        <v>0</v>
+      </c>
+      <c r="U3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2</v>
+      </c>
+      <c r="D4" s="35">
+        <f>C4+7.54</f>
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1100</v>
+      </c>
+      <c r="M4" s="34">
+        <v>2</v>
+      </c>
+      <c r="N4" s="38">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="O4" s="37">
+        <v>1100</v>
+      </c>
+      <c r="P4" s="40">
+        <v>4.5045045045045043E-2</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="R4" s="40">
+        <v>0.14563106796116504</v>
+      </c>
+      <c r="S4" s="40">
+        <v>2</v>
+      </c>
+      <c r="T4" s="40">
+        <v>2.7</v>
+      </c>
+      <c r="U4" s="40">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="34">
+        <v>3</v>
+      </c>
+      <c r="C5" s="35">
+        <v>5</v>
+      </c>
+      <c r="D5" s="36">
+        <f t="shared" ref="D5:D16" si="0">C5+7.54</f>
+        <v>12.54</v>
+      </c>
+      <c r="E5" s="35">
+        <v>160</v>
+      </c>
+      <c r="M5" s="34">
+        <v>3</v>
+      </c>
+      <c r="N5" s="39">
+        <v>12.54</v>
+      </c>
+      <c r="O5" s="37">
+        <v>160</v>
+      </c>
+      <c r="P5" s="40">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="R5" s="40">
+        <v>0.85492227979274615</v>
+      </c>
+      <c r="S5" s="40">
+        <v>2.6</v>
+      </c>
+      <c r="T5" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="U5" s="40">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="34">
+        <v>4</v>
+      </c>
+      <c r="C6" s="35">
+        <v>10</v>
+      </c>
+      <c r="D6" s="36">
+        <f t="shared" si="0"/>
+        <v>17.54</v>
+      </c>
+      <c r="E6" s="35">
+        <v>88</v>
+      </c>
+      <c r="M6" s="34">
+        <v>4</v>
+      </c>
+      <c r="N6" s="39">
+        <v>17.54</v>
+      </c>
+      <c r="O6" s="37">
+        <v>88</v>
+      </c>
+      <c r="P6" s="40">
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>0.92592592592592593</v>
+      </c>
+      <c r="R6" s="40">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="S6" s="40">
+        <v>3</v>
+      </c>
+      <c r="T6" s="40">
+        <v>3.95</v>
+      </c>
+      <c r="U6" s="40">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="34">
+        <v>5</v>
+      </c>
+      <c r="C7" s="35">
+        <v>20</v>
+      </c>
+      <c r="D7" s="36">
+        <f t="shared" si="0"/>
+        <v>27.54</v>
+      </c>
+      <c r="E7" s="35">
+        <v>60.5</v>
+      </c>
+      <c r="M7" s="34">
+        <v>5</v>
+      </c>
+      <c r="N7" s="39">
+        <v>27.54</v>
+      </c>
+      <c r="O7" s="37">
+        <v>60.5</v>
+      </c>
+      <c r="P7" s="40">
+        <v>0.70921985815602839</v>
+      </c>
+      <c r="Q7" s="40">
+        <v>1.2422360248447204</v>
+      </c>
+      <c r="R7" s="40">
+        <v>1.7647058823529411</v>
+      </c>
+      <c r="S7" s="40">
+        <v>3.29</v>
+      </c>
+      <c r="T7" s="40">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="U7" s="40">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="34">
+        <v>6</v>
+      </c>
+      <c r="C8" s="35">
+        <v>50</v>
+      </c>
+      <c r="D8" s="36">
+        <f t="shared" si="0"/>
+        <v>57.54</v>
+      </c>
+      <c r="E8" s="35">
+        <v>21.3</v>
+      </c>
+      <c r="M8" s="34">
+        <v>6</v>
+      </c>
+      <c r="N8" s="39">
+        <v>57.54</v>
+      </c>
+      <c r="O8" s="37">
+        <v>21.3</v>
+      </c>
+      <c r="P8" s="40">
+        <v>1.5974440894568691</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>2.4213075060532687</v>
+      </c>
+      <c r="R8" s="40">
+        <v>3.0386740331491713</v>
+      </c>
+      <c r="S8" s="40">
+        <v>3.68</v>
+      </c>
+      <c r="T8" s="40">
+        <v>4.59</v>
+      </c>
+      <c r="U8" s="40">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="34">
+        <v>7</v>
+      </c>
+      <c r="C9" s="35">
+        <v>70</v>
+      </c>
+      <c r="D9" s="36">
+        <f t="shared" si="0"/>
+        <v>77.540000000000006</v>
+      </c>
+      <c r="E9" s="35">
+        <v>15.9</v>
+      </c>
+      <c r="M9" s="34">
+        <v>7</v>
+      </c>
+      <c r="N9" s="39">
+        <v>77.540000000000006</v>
+      </c>
+      <c r="O9" s="37">
+        <v>15.9</v>
+      </c>
+      <c r="P9" s="40">
+        <v>1.9305019305019304</v>
+      </c>
+      <c r="Q9" s="40">
+        <v>2.785515320334262</v>
+      </c>
+      <c r="R9" s="40">
+        <v>3.3742331288343559</v>
+      </c>
+      <c r="S9" s="40">
+        <v>4</v>
+      </c>
+      <c r="T9" s="40">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="U9" s="40">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="34">
+        <v>8</v>
+      </c>
+      <c r="C10" s="35">
+        <v>100</v>
+      </c>
+      <c r="D10" s="36">
+        <f t="shared" si="0"/>
+        <v>107.54</v>
+      </c>
+      <c r="E10" s="35">
+        <v>13.5</v>
+      </c>
+      <c r="M10" s="34">
+        <v>8</v>
+      </c>
+      <c r="N10" s="39">
+        <v>107.54</v>
+      </c>
+      <c r="O10" s="37">
+        <v>13.5</v>
+      </c>
+      <c r="P10" s="40">
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>2.9850746268656718</v>
+      </c>
+      <c r="R10" s="40">
+        <v>3.5483870967741935</v>
+      </c>
+      <c r="S10" s="40">
+        <v>4.3</v>
+      </c>
+      <c r="T10" s="40">
+        <v>4.8650000000000002</v>
+      </c>
+      <c r="U10" s="40">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="34">
+        <v>9</v>
+      </c>
+      <c r="C11" s="35">
+        <v>150</v>
+      </c>
+      <c r="D11" s="36">
+        <f t="shared" si="0"/>
+        <v>157.54</v>
+      </c>
+      <c r="E11" s="35">
+        <v>10</v>
+      </c>
+      <c r="M11" s="34">
+        <v>9</v>
+      </c>
+      <c r="N11" s="39">
+        <v>157.54</v>
+      </c>
+      <c r="O11" s="37">
+        <v>10</v>
+      </c>
+      <c r="P11" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" s="40">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="R11" s="40">
+        <v>3.8372093023255816</v>
+      </c>
+      <c r="S11" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="T11" s="40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U11" s="40">
+        <v>4.9470000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="34">
+        <v>10</v>
+      </c>
+      <c r="C12" s="35">
+        <v>200</v>
+      </c>
+      <c r="D12" s="36">
+        <f t="shared" si="0"/>
+        <v>207.54</v>
+      </c>
+      <c r="E12" s="35">
+        <v>7.3</v>
+      </c>
+      <c r="M12" s="34">
+        <v>10</v>
+      </c>
+      <c r="N12" s="39">
+        <v>207.54</v>
+      </c>
+      <c r="O12" s="37">
+        <v>7.3</v>
+      </c>
+      <c r="P12" s="40">
+        <v>2.8901734104046244</v>
+      </c>
+      <c r="Q12" s="40">
+        <v>3.6630036630036629</v>
+      </c>
+      <c r="R12" s="40">
+        <v>4.0942928039702231</v>
+      </c>
+      <c r="S12" s="40">
+        <v>4.57</v>
+      </c>
+      <c r="T12" s="40">
+        <v>4.92</v>
+      </c>
+      <c r="U12" s="40">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="34">
+        <v>11</v>
+      </c>
+      <c r="C13" s="35">
+        <v>300</v>
+      </c>
+      <c r="D13" s="35">
+        <f t="shared" si="0"/>
+        <v>307.54000000000002</v>
+      </c>
+      <c r="E13" s="35">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="34">
+        <v>12</v>
+      </c>
+      <c r="C14" s="35">
+        <v>400</v>
+      </c>
+      <c r="D14" s="35">
+        <f t="shared" si="0"/>
+        <v>407.54</v>
+      </c>
+      <c r="E14" s="35">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="34">
+        <v>13</v>
+      </c>
+      <c r="C15" s="35">
+        <v>500</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="0"/>
+        <v>507.54</v>
+      </c>
+      <c r="E15" s="35">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="34">
+        <v>14</v>
+      </c>
+      <c r="C16" s="35">
+        <v>600</v>
+      </c>
+      <c r="D16" s="35">
+        <f t="shared" si="0"/>
+        <v>607.54</v>
+      </c>
+      <c r="E16" s="35">
+        <v>4.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>